--- a/data/evaluation/evaluation_Center_Spring_Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4379.732211583008</v>
+        <v>4432.550491234583</v>
       </c>
       <c r="C4" t="n">
-        <v>100910265.2602465</v>
+        <v>97501486.08880496</v>
       </c>
       <c r="D4" t="n">
-        <v>10045.41015888582</v>
+        <v>9874.284079810797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3258479589444958</v>
+        <v>0.348621018058038</v>
       </c>
     </row>
     <row r="5">
